--- a/target/classes/Test data/TEST_DATA.xlsx
+++ b/target/classes/Test data/TEST_DATA.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352F3734-7DDC-438B-A9C5-CB71E43F223A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A53A0E-443C-456A-A3E1-6F07E0698EF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login Page" sheetId="1" r:id="rId1"/>
@@ -243,13 +243,13 @@
     <t>VALID CAB PAGE DETAILS</t>
   </si>
   <si>
-    <t>9094035531</t>
-  </si>
-  <si>
-    <t>sriram@20</t>
-  </si>
-  <si>
-    <t>Sriram</t>
+    <t>9003561080</t>
+  </si>
+  <si>
+    <t>fantastic @4</t>
+  </si>
+  <si>
+    <t>yuvan</t>
   </si>
 </sst>
 </file>
@@ -785,7 +785,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,7 +878,7 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{DDFD11C2-2504-40AC-BD29-901DB6912AC3}"/>
+    <hyperlink ref="B5" r:id="rId1" display="sriram@20" xr:uid="{DDFD11C2-2504-40AC-BD29-901DB6912AC3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/target/classes/Test data/TEST_DATA.xlsx
+++ b/target/classes/Test data/TEST_DATA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A53A0E-443C-456A-A3E1-6F07E0698EF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1A9CC8-CA37-4AA6-B529-3F43ED720B37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="91">
   <si>
     <t>TEST DATA</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Mumbai, India</t>
   </si>
   <si>
-    <t>18/06/2020</t>
-  </si>
-  <si>
     <t>25/07/2020</t>
   </si>
   <si>
@@ -159,12 +156,6 @@
     <t>Goa,India</t>
   </si>
   <si>
-    <t>27/06/2020</t>
-  </si>
-  <si>
-    <t>20/06/2020</t>
-  </si>
-  <si>
     <t>NoOfRooms</t>
   </si>
   <si>
@@ -243,10 +234,61 @@
     <t>VALID CAB PAGE DETAILS</t>
   </si>
   <si>
+    <t>Sriram</t>
+  </si>
+  <si>
+    <t>User Data 1</t>
+  </si>
+  <si>
+    <t>User Data 2</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>45889</t>
+  </si>
+  <si>
+    <t>56354354</t>
+  </si>
+  <si>
+    <t>23/07/2020</t>
+  </si>
+  <si>
+    <t>6:30 AM</t>
+  </si>
+  <si>
+    <t>03/06/2020</t>
+  </si>
+  <si>
+    <t>25/06/2020</t>
+  </si>
+  <si>
+    <t>30/06/2020</t>
+  </si>
+  <si>
+    <t>20/07/2020</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>01/07/2020</t>
+  </si>
+  <si>
+    <t>03/07/2020</t>
+  </si>
+  <si>
     <t>9003561080</t>
   </si>
   <si>
-    <t>fantastic @4</t>
+    <t>fanstactic@4</t>
+  </si>
+  <si>
+    <t>9514518516</t>
+  </si>
+  <si>
+    <t>fantastic@4</t>
   </si>
   <si>
     <t>yuvan</t>
@@ -307,7 +349,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -350,6 +392,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -364,10 +412,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -385,7 +432,6 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -399,9 +445,6 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -409,9 +452,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -425,6 +465,9 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -782,95 +825,122 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="36.140625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="46.85546875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="27" x14ac:dyDescent="0.5">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:3" ht="27" x14ac:dyDescent="0.5">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="26"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="B2" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="C3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="B4" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="22" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="8" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -878,123 +948,161 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" display="sriram@20" xr:uid="{DDFD11C2-2504-40AC-BD29-901DB6912AC3}"/>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{DDFD11C2-2504-40AC-BD29-901DB6912AC3}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{AF708EFF-F06A-49CF-A363-E5087C5B9EB6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:B13"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.85546875" customWidth="1"/>
     <col min="2" max="2" width="72.28515625" customWidth="1"/>
+    <col min="3" max="3" width="76.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="27"/>
+    </row>
+    <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="30"/>
-    </row>
-    <row r="2" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="C2" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="12"/>
-    </row>
-    <row r="3" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="C3" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="C5" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="C6" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="B7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="C8" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="C9" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>71</v>
+      <c r="B13" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1008,100 +1116,133 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5703125" customWidth="1"/>
     <col min="2" max="2" width="65" customWidth="1"/>
+    <col min="3" max="3" width="64.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="27" x14ac:dyDescent="0.5">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:3" ht="27" x14ac:dyDescent="0.5">
+      <c r="A1" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="27"/>
+    </row>
+    <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="30"/>
-    </row>
-    <row r="2" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="C2" s="25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="C3" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="C4" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="C5" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="C8" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="C9" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="B11" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>35</v>
+      <c r="C11" s="9" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1114,77 +1255,101 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151372D6-FFEC-4746-AFDE-F5F14479193B}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="45.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="73.85546875" style="20" customWidth="1"/>
-    <col min="3" max="16384" width="45.7109375" style="20"/>
+    <col min="1" max="1" width="28.5703125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="73.85546875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="70.85546875" style="17" customWidth="1"/>
+    <col min="4" max="16384" width="45.7109375" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="28"/>
+    </row>
+    <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="31"/>
-    </row>
-    <row r="2" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="C2" s="25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="22"/>
-    </row>
-    <row r="3" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="B4" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B5" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="23" t="s">
+      <c r="B7" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>32</v>
+      <c r="B8" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1197,69 +1362,90 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75BF7A43-6526-4D41-908A-728E39C6BFA6}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" style="16" customWidth="1"/>
-    <col min="2" max="2" width="64" style="16" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="1" width="28" style="14" customWidth="1"/>
+    <col min="2" max="2" width="64" style="14" customWidth="1"/>
+    <col min="3" max="3" width="63.5703125" style="14" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="27" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:3" ht="27" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="29"/>
+    </row>
+    <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="32"/>
-    </row>
-    <row r="2" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="C2" s="25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="18"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="B6" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="B7" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>57</v>
+      <c r="C7" s="16" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/Test data/TEST_DATA.xlsx
+++ b/target/classes/Test data/TEST_DATA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1A9CC8-CA37-4AA6-B529-3F43ED720B37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF454604-A7C4-400C-90A8-61C443A00D10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -234,9 +234,6 @@
     <t>VALID CAB PAGE DETAILS</t>
   </si>
   <si>
-    <t>Sriram</t>
-  </si>
-  <si>
     <t>User Data 1</t>
   </si>
   <si>
@@ -279,19 +276,22 @@
     <t>03/07/2020</t>
   </si>
   <si>
+    <t>fanstactic@4</t>
+  </si>
+  <si>
+    <t>9514518516</t>
+  </si>
+  <si>
+    <t>fantastic@4</t>
+  </si>
+  <si>
+    <t>yuvan</t>
+  </si>
+  <si>
+    <t>Yuvan</t>
+  </si>
+  <si>
     <t>9003561080</t>
-  </si>
-  <si>
-    <t>fanstactic@4</t>
-  </si>
-  <si>
-    <t>9514518516</t>
-  </si>
-  <si>
-    <t>fantastic@4</t>
-  </si>
-  <si>
-    <t>yuvan</t>
   </si>
 </sst>
 </file>
@@ -827,7 +827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -850,10 +850,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="25" t="s">
         <v>72</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -872,10 +872,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -883,10 +883,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -905,10 +905,10 @@
         <v>23</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -925,7 +925,7 @@
         <v>56</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -936,7 +936,7 @@
         <v>57</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -982,10 +982,10 @@
         <v>70</v>
       </c>
       <c r="B2" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="25" t="s">
         <v>72</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1029,7 +1029,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1051,7 +1051,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1102,7 +1102,7 @@
         <v>68</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1140,10 +1140,10 @@
         <v>19</v>
       </c>
       <c r="B2" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="25" t="s">
         <v>72</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1184,10 +1184,10 @@
         <v>25</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1198,7 +1198,7 @@
         <v>29</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1209,7 +1209,7 @@
         <v>30</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1280,10 +1280,10 @@
         <v>40</v>
       </c>
       <c r="B2" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="25" t="s">
         <v>72</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1313,7 +1313,7 @@
         <v>42</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>68</v>
@@ -1324,10 +1324,10 @@
         <v>43</v>
       </c>
       <c r="B6" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>84</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1365,7 +1365,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1387,10 +1387,10 @@
         <v>47</v>
       </c>
       <c r="B2" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="25" t="s">
         <v>72</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1412,7 +1412,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1434,7 +1434,7 @@
         <v>53</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1445,7 +1445,7 @@
         <v>54</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
